--- a/Gantt Chart v5.xlsx
+++ b/Gantt Chart v5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sotonac-my.sharepoint.com/personal/mhby1g21_soton_ac_uk/Documents/COURSES/Y3/COMP3200 Individual Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{8EC14164-6069-42A4-8DEE-1BA83DD80038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE5A94ED-07F7-486D-A750-5EA058883A20}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="8_{8EC14164-6069-42A4-8DEE-1BA83DD80038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5247512C-D9EB-4670-8C5E-9E8658C84C8B}"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="2325" windowWidth="28800" windowHeight="15435" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Important dates" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="122">
   <si>
     <t>No.</t>
   </si>
@@ -377,9 +377,6 @@
     <t>CYBER COURSEWORK 1 SUBMIT DEADLINE</t>
   </si>
   <si>
-    <t>3D print mount for last touch up (optional)</t>
-  </si>
-  <si>
     <t>Easter Break</t>
   </si>
   <si>
@@ -389,9 +386,6 @@
     <t>REPORT SUBMIT DEADLINE</t>
   </si>
   <si>
-    <t>PROHECT VIVA</t>
-  </si>
-  <si>
     <t>REMOVED TASKS DUE TO TASK REORGANISATION:</t>
   </si>
   <si>
@@ -402,13 +396,22 @@
   </si>
   <si>
     <t>ELEC Coursework</t>
+  </si>
+  <si>
+    <t>Upgrade to Camera Module 3</t>
+  </si>
+  <si>
+    <t>SPDEV5: VR UI and UX Refinement</t>
+  </si>
+  <si>
+    <t>PROJECT VIVA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1632,9 +1635,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Executed!$A$4:$A$41</c:f>
+              <c:f>Executed!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>Literature research</c:v>
                 </c:pt>
@@ -1735,29 +1738,32 @@
                   <c:v>CYBER COURSEWORK 1 SUBMIT DEADLINE</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3D print mount for last touch up (optional)</c:v>
+                  <c:v>Upgrade to Camera Module 3</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>Easter Break</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>SPDEV5: VR UI and UX Refinement</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>Report writeup last</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>REPORT SUBMIT DEADLINE</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>PROHECT VIVA</c:v>
+                <c:pt idx="38">
+                  <c:v>PROJECT VIVA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Executed!$B$4:$B$41</c:f>
+              <c:f>Executed!$B$4:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45201</c:v>
                 </c:pt>
@@ -1864,12 +1870,15 @@
                   <c:v>45376</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>45396</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>45405</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>45412</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>45428</c:v>
                 </c:pt>
               </c:numCache>
@@ -2002,9 +2011,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Executed!$A$4:$A$41</c:f>
+              <c:f>Executed!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>Literature research</c:v>
                 </c:pt>
@@ -2105,29 +2114,32 @@
                   <c:v>CYBER COURSEWORK 1 SUBMIT DEADLINE</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3D print mount for last touch up (optional)</c:v>
+                  <c:v>Upgrade to Camera Module 3</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>Easter Break</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>SPDEV5: VR UI and UX Refinement</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>Report writeup last</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>REPORT SUBMIT DEADLINE</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>PROHECT VIVA</c:v>
+                <c:pt idx="38">
+                  <c:v>PROJECT VIVA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Executed!$C$4:$C$41</c:f>
+              <c:f>Executed!$C$4:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -2231,12 +2243,15 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3574,6 +3589,1194 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combined!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Combined!$A$21:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>Progress Report Writeup</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WINTER BREAK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EXAM WEEKS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hardware prototype development (HPDEV1): Basic Mono Functions</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hardware prototype testing (HPT1): Mono Testing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HPDOC2: Reflections and problems faced</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HPDEV2.5: Stereo soldering and implementation</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>HPTEST2: Test Video capabilities</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HPDEV3: Stereo Webcam Dev prototype</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>HPDEV4: 3D design mount and print</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>HPTEST3: Lifelogging still images test (whole day test)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SPDEV3: Image/Video Processing</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>HPDEV5: Stereo image video webcam finalisation</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SPDEV4: VR UI and UX</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Final report write up</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CYBER COURSEWORK 1 SUBMIT DEADLINE</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Upgrade to Camera Module 3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Easter Break</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>SPDEV5: VR UI and UX Refinement</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Report writeup last</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>REPORT SUBMIT DEADLINE</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>PROJECT VIVA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Combined!$B$21:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>45254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45321</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45330</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45342</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45345</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45347</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45347</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45349</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45349</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45356</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45366</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45374</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45376</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45396</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45405</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD40-4B58-A2E1-6876E487BE62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combined!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected Duration (days)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-BD40-4B58-A2E1-6876E487BE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-BD40-4B58-A2E1-6876E487BE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-BD40-4B58-A2E1-6876E487BE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-BD40-4B58-A2E1-6876E487BE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-BD40-4B58-A2E1-6876E487BE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000036-BD40-4B58-A2E1-6876E487BE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-BD40-4B58-A2E1-6876E487BE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000038-BD40-4B58-A2E1-6876E487BE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Combined!$A$21:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>Progress Report Writeup</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WINTER BREAK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EXAM WEEKS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hardware prototype development (HPDEV1): Basic Mono Functions</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hardware prototype testing (HPT1): Mono Testing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HPDOC2: Reflections and problems faced</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HPDEV2.5: Stereo soldering and implementation</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>HPTEST2: Test Video capabilities</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HPDEV3: Stereo Webcam Dev prototype</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>HPDEV4: 3D design mount and print</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>HPTEST3: Lifelogging still images test (whole day test)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SPDEV3: Image/Video Processing</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>HPDEV5: Stereo image video webcam finalisation</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SPDEV4: VR UI and UX</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Final report write up</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CYBER COURSEWORK 1 SUBMIT DEADLINE</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Upgrade to Camera Module 3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Easter Break</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>SPDEV5: VR UI and UX Refinement</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Report writeup last</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>REPORT SUBMIT DEADLINE</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>PROJECT VIVA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Combined!$C$21:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-BD40-4B58-A2E1-6876E487BE62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combined!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Difference</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-BD40-4B58-A2E1-6876E487BE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-BD40-4B58-A2E1-6876E487BE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-BD40-4B58-A2E1-6876E487BE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-BD40-4B58-A2E1-6876E487BE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000034-BD40-4B58-A2E1-6876E487BE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-BD40-4B58-A2E1-6876E487BE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-BD40-4B58-A2E1-6876E487BE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-BD40-4B58-A2E1-6876E487BE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-BD40-4B58-A2E1-6876E487BE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-BD40-4B58-A2E1-6876E487BE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-BD40-4B58-A2E1-6876E487BE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-BD40-4B58-A2E1-6876E487BE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003A-BD40-4B58-A2E1-6876E487BE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-BD40-4B58-A2E1-6876E487BE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Combined!$A$21:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>Progress Report Writeup</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WINTER BREAK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EXAM WEEKS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hardware prototype development (HPDEV1): Basic Mono Functions</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hardware prototype testing (HPT1): Mono Testing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HPDOC2: Reflections and problems faced</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HPDEV2.5: Stereo soldering and implementation</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>HPTEST2: Test Video capabilities</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HPDEV3: Stereo Webcam Dev prototype</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>HPDEV4: 3D design mount and print</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>HPTEST3: Lifelogging still images test (whole day test)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SPDEV3: Image/Video Processing</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>HPDEV5: Stereo image video webcam finalisation</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SPDEV4: VR UI and UX</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Final report write up</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CYBER COURSEWORK 1 SUBMIT DEADLINE</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Upgrade to Camera Module 3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Easter Break</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>SPDEV5: VR UI and UX Refinement</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Report writeup last</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>REPORT SUBMIT DEADLINE</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>PROJECT VIVA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Combined!$E$21:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000032-BD40-4B58-A2E1-6876E487BE62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="204364287"/>
+        <c:axId val="1678321263"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="204364287"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1678321263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1678321263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="204364287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3694,6 +4897,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -4705,6 +5948,511 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5262,7 +7010,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5328,6 +7076,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>235498</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>77186</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45BE6301-1354-4F6A-9870-980C3F488496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5605,13 +7391,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5631,7 +7417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5651,7 +7437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5671,7 +7457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5691,7 +7477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5711,7 +7497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>45299</v>
       </c>
@@ -5728,7 +7514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5748,7 +7534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5768,92 +7554,92 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5868,10 +7654,10 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67.140625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -5879,7 +7665,7 @@
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -5899,7 +7685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -5922,7 +7708,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -5948,7 +7734,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -5977,7 +7763,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -6006,7 +7792,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -6029,7 +7815,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -6052,7 +7838,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -6078,7 +7864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -6104,7 +7890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.25" customHeight="1">
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -6130,7 +7916,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -6156,7 +7942,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -6179,7 +7965,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -6202,7 +7988,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -6225,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.25" customHeight="1">
+    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -6248,7 +8034,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -6274,7 +8060,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -6300,7 +8086,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -6326,7 +8112,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -6349,7 +8135,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -6368,7 +8154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -6387,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -6402,11 +8188,11 @@
         <v>45294</v>
       </c>
       <c r="E23" s="2">
-        <f>Executed!E55</f>
+        <f>Executed!E56</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -6421,11 +8207,11 @@
         <v>45299</v>
       </c>
       <c r="E24" s="2">
-        <f>Executed!E56</f>
+        <f>Executed!E57</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -6443,7 +8229,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -6461,7 +8247,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -6479,7 +8265,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -6494,7 +8280,7 @@
         <v>45341</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -6509,7 +8295,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -6524,7 +8310,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -6539,7 +8325,7 @@
         <v>45361</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -6554,7 +8340,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -6569,55 +8355,55 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D34" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D35" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D36" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D38" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D39" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D40" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D41" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D42" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6634,13 +8420,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F12609-C238-4402-9A8B-B1D994A238B7}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
@@ -6648,7 +8434,7 @@
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -6668,7 +8454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -6691,7 +8477,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>Planned!A4</f>
         <v>Literature research</v>
@@ -6717,7 +8503,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Planned!A5</f>
         <v>Revise Project Brief v1</v>
@@ -6740,7 +8526,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Planned!A6</f>
         <v>Software prototype research p1 (SPR1)</v>
@@ -6772,7 +8558,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Planned!A7</f>
         <v>Software prototype development p1 (SPDEV1)</v>
@@ -6798,7 +8584,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>Planned!A8</f>
         <v>Software prototype test p1 (SPT1)</v>
@@ -6824,7 +8610,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>Planned!A9</f>
         <v>Hardware prototype research p1 (HPR1)</v>
@@ -6850,7 +8636,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>Planned!A10</f>
         <v>Hardware prototype documentation p1 (HPDOC1)</v>
@@ -6878,7 +8664,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>Planned!A11</f>
         <v>Design document drafting p1 (DD1)</v>
@@ -6903,7 +8689,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>Planned!A12</f>
         <v xml:space="preserve">Hardware procurement  </v>
@@ -6929,7 +8715,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -6953,7 +8739,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>Planned!A13</f>
         <v>SPR2: Stereo and OpenXR implementation</v>
@@ -6982,7 +8768,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>Planned!A14</f>
         <v>Software prototype documentation (SPDOC1)</v>
@@ -6996,7 +8782,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>Planned!A15</f>
         <v>SPDEV2: Stereo image and video</v>
@@ -7022,7 +8808,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -7046,7 +8832,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>Planned!A17</f>
         <v>Embedded Hardware Programming study</v>
@@ -7072,7 +8858,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -7096,7 +8882,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -7117,7 +8903,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -7138,7 +8924,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -7154,7 +8940,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>Planned!A25</f>
         <v>EXAM WEEKS</v>
@@ -7171,7 +8957,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>Planned!A18</f>
         <v>Hardware prototype development (HPDEV1): Basic Mono Functions</v>
@@ -7193,7 +8979,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>Planned!A19</f>
         <v>Hardware prototype testing (HPT1): Mono Testing</v>
@@ -7209,7 +8995,7 @@
         <v>45333</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>Planned!A20</f>
         <v>HPDOC2: Reflections and problems faced</v>
@@ -7225,7 +9011,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -7240,7 +9026,7 @@
         <v>45342</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -7251,11 +9037,11 @@
         <v>2</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" ref="D28:D41" si="2">B28+C28</f>
+        <f t="shared" ref="D28:D42" si="2">B28+C28</f>
         <v>45344</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -7270,7 +9056,7 @@
         <v>45349</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -7285,7 +9071,7 @@
         <v>45356</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>107</v>
       </c>
@@ -7300,7 +9086,7 @@
         <v>45349</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -7315,7 +9101,7 @@
         <v>45356</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -7330,7 +9116,7 @@
         <v>45356</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>110</v>
       </c>
@@ -7345,7 +9131,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>Planned!A33</f>
         <v>Final report write up</v>
@@ -7362,7 +9148,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>111</v>
       </c>
@@ -7377,9 +9163,9 @@
         <v>45373</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B37" s="1">
         <v>45374</v>
@@ -7392,9 +9178,9 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B38" s="1">
         <v>45376</v>
@@ -7407,207 +9193,222 @@
         <v>45404</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B39" s="1">
+        <v>45396</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" ref="D39" si="3">B39+C39</f>
         <v>45405</v>
       </c>
-      <c r="C39">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45405</v>
+      </c>
+      <c r="C40">
         <v>7</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="2"/>
-        <v>45412</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="1">
-        <v>45412</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="2"/>
         <v>45412</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B41" s="1">
-        <v>45428</v>
+        <v>45412</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="2"/>
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45428</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="2"/>
         <v>45429</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="str">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
         <f>Planned!A21</f>
         <v>SPDEV3: Image timelapse browsing (mono) and video playback (UI)</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B55" s="1">
         <f>Planned!B21</f>
         <v>45261</v>
       </c>
-      <c r="D54" s="1">
-        <f t="shared" ref="D54:D63" si="3">B54+C54</f>
+      <c r="D55" s="1">
+        <f t="shared" ref="D55:D64" si="4">B55+C55</f>
         <v>45261</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A55" t="str">
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
         <f>Planned!A22</f>
         <v>SPT3: Pico Camera images and video test (resolution changes)</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B56" s="1">
         <f>Planned!B22</f>
         <v>45275</v>
       </c>
-      <c r="D55" s="1">
-        <f t="shared" si="3"/>
+      <c r="D56" s="1">
+        <f t="shared" si="4"/>
         <v>45275</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="str">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
         <f>Planned!A23</f>
         <v>HPR2: 3D Modelling Software Study and training</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B57" s="1">
         <f>Planned!B23</f>
         <v>45280</v>
       </c>
-      <c r="D56" s="1">
-        <f t="shared" si="3"/>
+      <c r="D57" s="1">
+        <f t="shared" si="4"/>
         <v>45280</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="str">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
         <f>Planned!A24</f>
         <v>HPDEV2: 3D model design v1</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B58" s="1">
         <f>Planned!B24</f>
         <v>45294</v>
       </c>
-      <c r="D57" s="1">
-        <f t="shared" si="3"/>
+      <c r="D58" s="1">
+        <f t="shared" si="4"/>
         <v>45294</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="str">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
         <f>Planned!A26</f>
         <v>HPDEV3: Stereo camera functionality</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B59" s="1">
         <f>Planned!B26</f>
         <v>45320</v>
       </c>
-      <c r="D58" s="1">
-        <f t="shared" si="3"/>
+      <c r="D59" s="1">
+        <f t="shared" si="4"/>
         <v>45320</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="str">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
         <f>Planned!A27</f>
         <v>HPT3: Functional hardware test to get footage</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B60" s="1">
         <f>Planned!B27</f>
         <v>45327</v>
       </c>
-      <c r="D59" s="1">
-        <f t="shared" si="3"/>
+      <c r="D60" s="1">
+        <f t="shared" si="4"/>
         <v>45327</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="str">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
         <f>Planned!A28</f>
         <v>SPDEV3: Stereo audio sync and optimisation</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B61" s="1">
         <f>Planned!B28</f>
         <v>45334</v>
       </c>
-      <c r="D60" s="1">
-        <f t="shared" si="3"/>
+      <c r="D61" s="1">
+        <f t="shared" si="4"/>
         <v>45334</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="str">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
         <f>Planned!A29</f>
         <v>SPT3: Testing on friends for feedback</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B62" s="1">
         <f>Planned!B29</f>
         <v>45341</v>
       </c>
-      <c r="D61" s="1">
-        <f t="shared" si="3"/>
+      <c r="D62" s="1">
+        <f t="shared" si="4"/>
         <v>45341</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="str">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
         <f>Planned!A30</f>
         <v>HPDEV4: Add onboard battery (and charging circuit)</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B63" s="1">
         <f>Planned!B30</f>
         <v>45344</v>
       </c>
-      <c r="D62" s="1">
-        <f t="shared" si="3"/>
+      <c r="D63" s="1">
+        <f t="shared" si="4"/>
         <v>45344</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="str">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
         <f>Planned!A31</f>
         <v xml:space="preserve">HPT4: Test onboard battery life and powermode </v>
       </c>
-      <c r="B63" s="1">
+      <c r="B64" s="1">
         <f>Planned!B31</f>
         <v>45354</v>
       </c>
-      <c r="D63" s="1">
-        <f t="shared" si="3"/>
+      <c r="D64" s="1">
+        <f t="shared" si="4"/>
         <v>45354</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="str">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
         <f>Planned!A32</f>
         <v>Optimisation and organisation</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B65" s="1">
         <f>Planned!B32</f>
         <v>45361</v>
       </c>
-      <c r="D64" s="1">
-        <f>B64+C64</f>
+      <c r="D65" s="1">
+        <f>B65+C65</f>
         <v>45361</v>
       </c>
     </row>
@@ -7624,13 +9425,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB32B44-AF31-4750-897C-7301F24D334D}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="W52" sqref="W52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -7639,7 +9440,7 @@
     <col min="5" max="5" width="10.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -7660,7 +9461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -7671,13 +9472,13 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>Executed!A4</f>
         <v>Literature research</v>
@@ -7699,7 +9500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Executed!A5</f>
         <v>Revise Project Brief v1</v>
@@ -7717,11 +9518,11 @@
         <v>6</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:E21" si="0">IF(D5-C5&lt;0, 0, D5-C5)</f>
+        <f t="shared" ref="E5:E42" si="0">IF(D5-C5&lt;0, 0, D5-C5)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Executed!A6</f>
         <v>Software prototype research p1 (SPR1)</v>
@@ -7743,7 +9544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Executed!A7</f>
         <v>Software prototype development p1 (SPDEV1)</v>
@@ -7765,7 +9566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>Executed!A8</f>
         <v>Software prototype test p1 (SPT1)</v>
@@ -7787,7 +9588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>Executed!A9</f>
         <v>Hardware prototype research p1 (HPR1)</v>
@@ -7809,7 +9610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>Executed!A10</f>
         <v>Hardware prototype documentation p1 (HPDOC1)</v>
@@ -7831,7 +9632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>Planned!A11</f>
         <v>Design document drafting p1 (DD1)</v>
@@ -7850,7 +9651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>Planned!A12</f>
         <v xml:space="preserve">Hardware procurement  </v>
@@ -7873,7 +9674,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -7894,7 +9695,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>Planned!A13</f>
         <v>SPR2: Stereo and OpenXR implementation</v>
@@ -7917,7 +9718,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>Planned!A14</f>
         <v>Software prototype documentation (SPDOC1)</v>
@@ -7934,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>Planned!A15</f>
         <v>SPDEV2: Stereo image and video</v>
@@ -7957,7 +9758,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -7978,7 +9779,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>Planned!A17</f>
         <v>Embedded Hardware Programming study</v>
@@ -8001,7 +9802,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -8022,9 +9823,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B20" s="1">
         <v>45246</v>
@@ -8043,7 +9844,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -8059,6 +9860,391 @@
       <c r="E21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45272</v>
+      </c>
+      <c r="C22">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>26</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>Planned!A25</f>
+        <v>EXAM WEEKS</v>
+      </c>
+      <c r="B23" s="1">
+        <f>Planned!B25</f>
+        <v>45299</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>Planned!A18</f>
+        <v>Hardware prototype development (HPDEV1): Basic Mono Functions</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45321</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>Planned!A19</f>
+        <v>Hardware prototype testing (HPT1): Mono Testing</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45329</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>Planned!A20</f>
+        <v>HPDOC2: Reflections and problems faced</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45330</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45335</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45342</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45345</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45347</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45347</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45349</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45349</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45356</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>Planned!A33</f>
+        <v>Final report write up</v>
+      </c>
+      <c r="B35" s="1">
+        <f>Planned!B33</f>
+        <v>45366</v>
+      </c>
+      <c r="C35">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45373</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45374</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45376</v>
+      </c>
+      <c r="C38">
+        <v>28</v>
+      </c>
+      <c r="D38">
+        <v>28</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45396</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45405</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45412</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45428</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
